--- a/biology/Biologie cellulaire et moléculaire/Parkine/Parkine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Parkine/Parkine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La parkine est une enzyme de type ubiquitine ligase dont le gène, PARK2, est situé sur le chromosome 6 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme ubiquitine ligase, elle facilite la dégradation des protéines par le protéasome. Elle contribue à maintenir l'intégrité de la membrane mitochondriale[5] en association avec le PINK1[6], ce dernier activant la parkine par l'intermédiaire d'une phosphorylation de l'ubiquitine[7].
-Elle empêche également l'internalisation du récepteur de l'EGF et active la voie du phosphoinositide 3-kinase/Atk[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ubiquitine ligase, elle facilite la dégradation des protéines par le protéasome. Elle contribue à maintenir l'intégrité de la membrane mitochondriale en association avec le PINK1, ce dernier activant la parkine par l'intermédiaire d'une phosphorylation de l'ubiquitine.
+Elle empêche également l'internalisation du récepteur de l'EGF et active la voie du phosphoinositide 3-kinase/Atk.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène entraîne une syndrome parkinsonien avec une transmission autosomale récessive. Ce gène constitue ainsi une piste de recherche pour la thérapie génique de la maladie de Parkinson[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène entraîne une syndrome parkinsonien avec une transmission autosomale récessive. Ce gène constitue ainsi une piste de recherche pour la thérapie génique de la maladie de Parkinson.
 </t>
         </is>
       </c>
